--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7333C8-DAFC-4E1C-8FA3-2F90E4CDB94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB3C79-948D-4396-B52A-0987F2333B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$A$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$A$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,8 +27,1263 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>김민기</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{EDC39344-7E31-4D0E-A869-828BFC9E61EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>창</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>띄우기</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{7E6AEB18-8177-4DBF-9117-01BD03303A9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>승리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{2EA7FDDD-9777-46B8-8B52-729ACB9C36DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기획</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{06AD3C83-1E8F-412F-8944-5CA438488EB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스테이지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이콘</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이상하게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나오던</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>버그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{EE90CC74-CDCB-4925-BB4A-5AEBF8C67D9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기획</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{1601F8EC-E7EA-4DC2-BA20-4898556804DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기획</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{486C4025-7417-455D-BBDA-708B843A51A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>텍스트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>치명타</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> X)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{1E632A4A-F37C-42C9-A149-DCF72F6A0CEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기획</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{04D1ECD6-7B75-4E4C-8F35-981D5A563FEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기획</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{09AA03C9-0E64-4300-83FD-E180EAE7B930}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기획</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{3E215DE6-44E1-407A-84E3-1885DF67AFD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기획</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,12 +1348,44 @@
     <t>버그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>마왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕 바리에이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +1411,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -257,46 +1581,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -330,7 +1619,20 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -340,9 +1642,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -352,13 +1652,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -367,7 +1687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,61 +1742,64 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,170 +2081,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="33" width="7.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="P1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="P2" s="6"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
     </row>
     <row r="3" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="2"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
-      <c r="B5" s="22">
+      <c r="B5" s="25">
         <v>44512</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="26">
         <v>44513</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="26">
         <v>44514</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="27">
         <v>44515</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="27">
         <v>44516</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="27">
         <v>44517</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="27">
         <v>44518</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="27">
         <v>44519</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="26">
         <v>44520</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="26">
         <v>44521</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="27">
         <v>44522</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="27">
         <v>44523</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="27">
         <v>44524</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="27">
         <v>44525</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="27">
         <v>44526</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="26">
         <v>44527</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="26">
         <v>44528</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="27">
         <v>44529</v>
       </c>
-      <c r="T5" s="24">
+      <c r="T5" s="27">
         <v>44530</v>
       </c>
-      <c r="U5" s="24">
+      <c r="U5" s="28">
         <v>44531</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="29">
         <v>44532</v>
       </c>
-      <c r="W5" s="24">
-        <v>44533</v>
-      </c>
-      <c r="X5" s="24">
-        <v>44534</v>
-      </c>
-      <c r="Y5" s="24">
-        <v>44535</v>
-      </c>
-      <c r="Z5" s="24">
-        <v>44536</v>
-      </c>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="26"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -932,26 +2262,26 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="19"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
     </row>
     <row r="7" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="5"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -962,18 +2292,18 @@
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
+      <c r="V7" s="18"/>
       <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="20"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
     </row>
     <row r="8" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -981,7 +2311,8 @@
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="6"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
@@ -992,61 +2323,53 @@
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
+      <c r="V8" s="18"/>
       <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="20"/>
-    </row>
-    <row r="9" spans="1:33" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+    </row>
+    <row r="9" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="20"/>
-    </row>
-    <row r="10" spans="1:33" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="5"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+    </row>
+    <row r="10" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -1057,56 +2380,56 @@
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
+      <c r="V10" s="18"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="20"/>
-    </row>
-    <row r="11" spans="1:33" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+    </row>
+    <row r="11" spans="1:33" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="20"/>
+      <c r="C11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
     </row>
     <row r="12" spans="1:33" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="14"/>
       <c r="D12" s="13"/>
+      <c r="E12" s="6"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -1117,26 +2440,26 @@
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
+      <c r="V12" s="18"/>
       <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="20"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
     </row>
     <row r="13" spans="1:33" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -1147,7 +2470,7 @@
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
+      <c r="V13" s="18"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -1158,15 +2481,15 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
-      <c r="AG13" s="20"/>
-    </row>
-    <row r="14" spans="1:33" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="AG13" s="14"/>
+    </row>
+    <row r="14" spans="1:33" ht="16.8" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -1177,7 +2500,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
+      <c r="V14" s="18"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
@@ -1188,47 +2511,46 @@
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
       <c r="AF14" s="13"/>
-      <c r="AG14" s="20"/>
-    </row>
-    <row r="15" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="33"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AG14" s="14"/>
+    </row>
+    <row r="15" spans="1:33" ht="16.8" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="6"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="14"/>
+    </row>
+    <row r="16" spans="1:33" ht="16.8" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -1239,7 +2561,7 @@
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
+      <c r="V16" s="18"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -1250,10 +2572,12 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
       <c r="AF16" s="13"/>
-      <c r="AG16" s="20"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
+      <c r="AG16" s="14"/>
+    </row>
+    <row r="17" spans="1:33" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B17" s="9"/>
       <c r="C17" s="14"/>
       <c r="D17" s="13"/>
@@ -1267,7 +2591,7 @@
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
+      <c r="V17" s="18"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -1278,105 +2602,464 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="13"/>
       <c r="AF17" s="13"/>
-      <c r="AG17" s="20"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
+      <c r="AG17" s="14"/>
+    </row>
+    <row r="18" spans="1:33" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="20"/>
-    </row>
-    <row r="19" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="5"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
+    </row>
+    <row r="19" spans="1:33" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="14"/>
+    </row>
+    <row r="20" spans="1:33" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="14"/>
+    </row>
+    <row r="21" spans="1:33" ht="16.8" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="14"/>
+    </row>
+    <row r="22" spans="1:33" ht="16.8" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="14"/>
+    </row>
+    <row r="23" spans="1:33" ht="16.8" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="14"/>
+    </row>
+    <row r="24" spans="1:33" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="14"/>
+    </row>
+    <row r="25" spans="1:33" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="14"/>
+    </row>
+    <row r="26" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="13"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="21"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A27" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="14"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="14"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+    </row>
+    <row r="30" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="21"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="10"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="10"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="10"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A25" s="10"/>
-      <c r="AD25" s="12"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A26" s="10"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A27" s="10"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="14"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A31" s="10"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A32" s="10"/>
+      <c r="E32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="10"/>
+      <c r="AG33" s="12"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A34" s="10"/>
+      <c r="AG34" s="12"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A35" s="10"/>
+      <c r="AG35" s="12"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A36" s="10"/>
+      <c r="AD36" s="12"/>
+      <c r="AG36" s="12"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A37" s="10"/>
+      <c r="AG37" s="12"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A38" s="10"/>
+      <c r="AG38" s="12"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AG39" s="12"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AG40" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:AG4"/>
+    <mergeCell ref="B4:V4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/일정표.xlsx
+++ b/Documents/일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB3C79-948D-4396-B52A-0987F2333B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBD4E16-85C1-4CFE-9256-3978C570FBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,70 @@
     <author>김민기</author>
   </authors>
   <commentList>
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{F012819C-AAD5-46C9-B0CA-FF74795D0B37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김민기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>완성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>목표일</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0" xr:uid="{EDC39344-7E31-4D0E-A869-828BFC9E61EC}">
       <text>
         <r>
@@ -1456,7 +1520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1493,6 +1557,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -1687,7 +1757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1801,6 +1871,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2084,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -2212,7 +2294,7 @@
       <c r="N5" s="27">
         <v>44524</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="38">
         <v>44525</v>
       </c>
       <c r="P5" s="27">
@@ -2255,7 +2337,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="O6" s="39"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -2285,7 +2367,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="O7" s="39"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
@@ -2316,7 +2398,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="O8" s="39"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
@@ -2346,7 +2428,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="O9" s="39"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -2373,7 +2455,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="O10" s="39"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
@@ -2402,7 +2484,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="39"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -2433,7 +2515,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="O12" s="39"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
@@ -2463,7 +2545,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="O13" s="39"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
@@ -2493,7 +2575,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="O14" s="39"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
@@ -2524,7 +2606,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="O15" s="39"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
@@ -2554,7 +2636,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
+      <c r="O16" s="39"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
@@ -2584,7 +2666,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="O17" s="39"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
@@ -2614,7 +2696,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
+      <c r="O18" s="39"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
@@ -2642,7 +2724,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
+      <c r="O19" s="39"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
@@ -2672,7 +2754,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="O20" s="39"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
@@ -2702,7 +2784,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="O21" s="39"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
@@ -2732,7 +2814,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="O22" s="39"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
@@ -2762,7 +2844,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="O23" s="39"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
@@ -2790,7 +2872,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="O24" s="39"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
@@ -2820,7 +2902,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="O25" s="39"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -2847,12 +2929,12 @@
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="13"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="J26"/>
+      <c r="K26"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
+      <c r="O26" s="40"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
@@ -2882,7 +2964,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
+      <c r="O27" s="39"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
@@ -2910,7 +2992,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
+      <c r="O28" s="39"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
@@ -2938,7 +3020,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
+      <c r="O29" s="39"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -2975,7 +3057,7 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="O30" s="41"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
